--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.00105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.785</v>
+        <v>0.7917999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119</v>
+        <v>0.1094</v>
       </c>
       <c r="E2" t="n">
-        <v>0.904</v>
+        <v>0.90225</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.316</v>
+        <v>0.3204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213</v>
+        <v>0.20745</v>
       </c>
       <c r="D3" t="n">
-        <v>0.303</v>
+        <v>0.2941</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8320000000000001</v>
+        <v>0.82195</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.517</v>
+        <v>0.50425</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.107</v>
+        <v>0.095</v>
       </c>
       <c r="E4" t="n">
-        <v>0.624</v>
+        <v>0.5992499999999999</v>
       </c>
     </row>
     <row r="5">
@@ -513,54 +513,54 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.13</v>
+        <v>0.1466</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.165</v>
+        <v>0.1794</v>
       </c>
       <c r="E5" t="n">
-        <v>0.295</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.02145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.118</v>
+        <v>0.09915</v>
       </c>
       <c r="E6" t="n">
-        <v>0.12</v>
+        <v>0.1206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.00075</v>
       </c>
       <c r="D7" t="n">
-        <v>0.089</v>
+        <v>0.1137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.116</v>
+        <v>0.11445</v>
       </c>
     </row>
     <row r="8">
@@ -570,22 +570,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01</v>
+        <v>0.00595</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.029</v>
+        <v>0.03635</v>
       </c>
       <c r="E8" t="n">
-        <v>0.039</v>
+        <v>0.0423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -595,16 +595,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03</v>
+        <v>0.02815</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03</v>
+        <v>0.02815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.024</v>
+        <v>0.02475</v>
       </c>
       <c r="E10" t="n">
-        <v>0.024</v>
+        <v>0.02475</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.013</v>
+        <v>0.01485</v>
       </c>
       <c r="E11" t="n">
-        <v>0.013</v>
+        <v>0.01485</v>
       </c>
     </row>
     <row r="12">
@@ -646,16 +646,54 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003</v>
+        <v>0.0048</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003</v>
+        <v>0.005099999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.00015</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,39 +452,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Concepción</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00105</v>
+        <v>0.342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7917999999999999</v>
+        <v>0.354</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1094</v>
+        <v>0.208</v>
       </c>
       <c r="E2" t="n">
-        <v>0.90225</v>
+        <v>0.9039999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>Universidad de Concepción</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3204</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20745</v>
+        <v>0.645</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2941</v>
+        <v>0.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.82195</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.50425</v>
+        <v>0.51</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.095</v>
+        <v>0.122</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5992499999999999</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="5">
@@ -513,98 +513,98 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1466</v>
+        <v>0.142</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1794</v>
+        <v>0.193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.326</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02145</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09915</v>
+        <v>0.162</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1206</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00075</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1137</v>
+        <v>0.039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.11445</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00595</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03635</v>
+        <v>0.032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0423</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02815</v>
+        <v>0.022</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02815</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -614,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02475</v>
+        <v>0.012</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02475</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -633,35 +633,35 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01485</v>
+        <v>0.007</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01485</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0048</v>
+        <v>0.002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005099999999999999</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -671,29 +671,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002</v>
+        <v>0.001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Santiago Wanderers</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.00015</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.00015</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.342</v>
+        <v>0.3362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.354</v>
+        <v>0.3398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9039999999999999</v>
+        <v>0.8859999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.645</v>
+        <v>0.6581</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.1829</v>
       </c>
       <c r="E3" t="n">
-        <v>0.845</v>
+        <v>0.8419000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.51</v>
+        <v>0.5022</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.122</v>
+        <v>0.1126</v>
       </c>
       <c r="E4" t="n">
-        <v>0.632</v>
+        <v>0.6148</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.142</v>
+        <v>0.1539</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.193</v>
+        <v>0.2065</v>
       </c>
       <c r="E5" t="n">
-        <v>0.335</v>
+        <v>0.3604</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001</v>
+        <v>0.0021</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162</v>
+        <v>0.1545</v>
       </c>
       <c r="E6" t="n">
-        <v>0.163</v>
+        <v>0.1566</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002</v>
+        <v>0.0055</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.039</v>
+        <v>0.0485</v>
       </c>
       <c r="E7" t="n">
-        <v>0.041</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="8">
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.032</v>
+        <v>0.0385</v>
       </c>
       <c r="E8" t="n">
-        <v>0.032</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004</v>
+        <v>0.0009</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.022</v>
+        <v>0.0287</v>
       </c>
       <c r="E9" t="n">
-        <v>0.026</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="10">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.012</v>
+        <v>0.0073</v>
       </c>
       <c r="E10" t="n">
-        <v>0.012</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007</v>
+        <v>0.0056</v>
       </c>
       <c r="E11" t="n">
-        <v>0.007</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="12">
@@ -652,29 +652,48 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>Santiago Wanderers</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.001</v>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0003</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3362</v>
+        <v>0.33796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3398</v>
+        <v>0.33864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.20804</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8859999999999999</v>
+        <v>0.88464</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009</v>
+        <v>0.00108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6581</v>
+        <v>0.65976</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1829</v>
+        <v>0.18408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8419000000000001</v>
+        <v>0.84492</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5022</v>
+        <v>0.50764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1126</v>
+        <v>0.1064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6148</v>
+        <v>0.6140399999999999</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1539</v>
+        <v>0.14516</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2065</v>
+        <v>0.20416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3604</v>
+        <v>0.34932</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0021</v>
+        <v>0.0016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1545</v>
+        <v>0.16348</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1566</v>
+        <v>0.16508</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0055</v>
+        <v>0.00692</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0485</v>
+        <v>0.04988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.054</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="8">
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0385</v>
+        <v>0.03736</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0385</v>
+        <v>0.03736</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009</v>
+        <v>0.00096</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0287</v>
+        <v>0.02812</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0296</v>
+        <v>0.02908</v>
       </c>
     </row>
     <row r="10">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004</v>
+        <v>0.00028</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0073</v>
+        <v>0.0062</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0077</v>
+        <v>0.00648</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0056</v>
+        <v>0.00608</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0056</v>
+        <v>0.00608</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004</v>
+        <v>0.0048</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -671,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00084</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003</v>
+        <v>0.00056</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003</v>
+        <v>0.00056</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.33796</v>
+        <v>0.3345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.33864</v>
+        <v>0.3452</v>
       </c>
       <c r="D2" t="n">
-        <v>0.20804</v>
+        <v>0.203</v>
       </c>
       <c r="E2" t="n">
-        <v>0.88464</v>
+        <v>0.8827</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00108</v>
+        <v>0.0009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.65976</v>
+        <v>0.6531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18408</v>
+        <v>0.1822</v>
       </c>
       <c r="E3" t="n">
-        <v>0.84492</v>
+        <v>0.8362000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.50764</v>
+        <v>0.5073</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1064</v>
+        <v>0.1086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6140399999999999</v>
+        <v>0.6159</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.14516</v>
+        <v>0.1487</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20416</v>
+        <v>0.2073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.34932</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16348</v>
+        <v>0.1621</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16508</v>
+        <v>0.1638</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00692</v>
+        <v>0.0071</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04988</v>
+        <v>0.05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0568</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="8">
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03736</v>
+        <v>0.0376</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03736</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00096</v>
+        <v>0.0009</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02812</v>
+        <v>0.0289</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02908</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="10">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00028</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0062</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00648</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00608</v>
+        <v>0.006</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00608</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0048</v>
+        <v>0.0045</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0048</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -671,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00084</v>
+        <v>0.0007</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00084</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00056</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00056</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3345</v>
+        <v>0.443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3452</v>
+        <v>0.273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.203</v>
+        <v>0.18</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8827</v>
+        <v>0.8959999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009</v>
+        <v>0.002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6531</v>
+        <v>0.722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1822</v>
+        <v>0.146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8362000000000001</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5073</v>
+        <v>0.3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1086</v>
+        <v>0.125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6159</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1487</v>
+        <v>0.246</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2073</v>
+        <v>0.174</v>
       </c>
       <c r="E5" t="n">
-        <v>0.356</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0017</v>
+        <v>0.005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1621</v>
+        <v>0.218</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1638</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0071</v>
+        <v>0.008</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0571</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="8">
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0376</v>
+        <v>0.046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0376</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0289</v>
+        <v>0.032</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0298</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="10">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.007</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0091</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="12">
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0045</v>
+        <v>0.007</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0045</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="13">
@@ -671,29 +671,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007</v>
+        <v>0.003</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Santiago Wanderers</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.003</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.443</v>
+        <v>0.45272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.273</v>
+        <v>0.25238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.19326</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8959999999999999</v>
+        <v>0.89836</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002</v>
+        <v>0.00176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.722</v>
+        <v>0.7456199999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.146</v>
+        <v>0.135</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87</v>
+        <v>0.8823799999999999</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3</v>
+        <v>0.31226</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125</v>
+        <v>0.1331</v>
       </c>
       <c r="E4" t="n">
-        <v>0.425</v>
+        <v>0.44536</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.246</v>
+        <v>0.2184</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.174</v>
+        <v>0.17062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.42</v>
+        <v>0.38902</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218</v>
+        <v>0.2098</v>
       </c>
       <c r="E6" t="n">
-        <v>0.223</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008</v>
+        <v>0.01288</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.054</v>
+        <v>0.0549</v>
       </c>
       <c r="E7" t="n">
-        <v>0.062</v>
+        <v>0.06777999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.046</v>
+        <v>0.04956</v>
       </c>
       <c r="E8" t="n">
-        <v>0.046</v>
+        <v>0.04956</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.032</v>
+        <v>0.0317</v>
       </c>
       <c r="E9" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="10">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007</v>
+        <v>0.00748</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008</v>
+        <v>0.00812</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008</v>
+        <v>0.00766</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008</v>
+        <v>0.00768</v>
       </c>
     </row>
     <row r="12">
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007</v>
+        <v>0.0057</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="13">
@@ -665,16 +665,35 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003</v>
+        <v>0.0007</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003</v>
+        <v>0.00072</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.00052</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -452,39 +452,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>Universidad de Concepción</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.45272</v>
+        <v>0.004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25238</v>
+        <v>0.6762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19326</v>
+        <v>0.1646</v>
       </c>
       <c r="E2" t="n">
-        <v>0.89836</v>
+        <v>0.8448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Concepción</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00176</v>
+        <v>0.2626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7456199999999999</v>
+        <v>0.3234</v>
       </c>
       <c r="D3" t="n">
-        <v>0.135</v>
+        <v>0.2572</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8823799999999999</v>
+        <v>0.8432000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.31226</v>
+        <v>0.4126</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1331</v>
+        <v>0.1118</v>
       </c>
       <c r="E4" t="n">
-        <v>0.44536</v>
+        <v>0.5244</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2184</v>
+        <v>0.2878</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17062</v>
+        <v>0.175</v>
       </c>
       <c r="E5" t="n">
-        <v>0.38902</v>
+        <v>0.4628</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002</v>
+        <v>0.0004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2098</v>
+        <v>0.1248</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2118</v>
+        <v>0.1252</v>
       </c>
     </row>
     <row r="7">
@@ -551,54 +551,54 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01288</v>
+        <v>0.0298</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0549</v>
+        <v>0.0682</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06777999999999999</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04956</v>
+        <v>0.0438</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04956</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0317</v>
+        <v>0.0302</v>
       </c>
       <c r="E9" t="n">
-        <v>0.033</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="10">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00748</v>
+        <v>0.0118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00812</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00766</v>
+        <v>0.0058</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00768</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="12">
@@ -652,35 +652,35 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0057</v>
+        <v>0.0036</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0057</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007</v>
+        <v>0.0018</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00072</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00052</v>
+        <v>0.0014</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00052</v>
+        <v>0.0014</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004</v>
+        <v>0.0042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6762</v>
+        <v>0.675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1646</v>
+        <v>0.1548</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8448</v>
+        <v>0.8340000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2626</v>
+        <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3234</v>
+        <v>0.3074</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2572</v>
+        <v>0.2658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8432000000000001</v>
+        <v>0.8231999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4126</v>
+        <v>0.424</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1118</v>
+        <v>0.1152</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5244</v>
+        <v>0.5392</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2878</v>
+        <v>0.2924</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.175</v>
+        <v>0.169</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4628</v>
+        <v>0.4614</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004</v>
+        <v>0.0176</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1248</v>
+        <v>0.181</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1252</v>
+        <v>0.1986</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0298</v>
+        <v>0.0248</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0682</v>
+        <v>0.0602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.098</v>
+        <v>0.08499999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,60 +570,60 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0026</v>
+        <v>0.004</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0438</v>
+        <v>0.0358</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0464</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0302</v>
+        <v>0.0104</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0302</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0118</v>
+        <v>0.0046</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0124</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0058</v>
+        <v>0.0012</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0058</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -652,16 +652,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0036</v>
+        <v>0.0012</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0036</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -671,29 +671,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0018</v>
+        <v>0.0008</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0018</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>O'Higgins</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0014</v>
+        <v>0.0008</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -623,7 +623,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -642,7 +642,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="B12" t="n">

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,39 +452,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Concepción</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0042</v>
+        <v>0.2688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.675</v>
+        <v>0.319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1548</v>
+        <v>0.239</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8340000000000001</v>
+        <v>0.8268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>Universidad de Concepción</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>0.0028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3074</v>
+        <v>0.6596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2658</v>
+        <v>0.1604</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8231999999999999</v>
+        <v>0.8228</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.424</v>
+        <v>0.4152</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1152</v>
+        <v>0.1238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5392</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2924</v>
+        <v>0.287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.169</v>
+        <v>0.1742</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4614</v>
+        <v>0.4611999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0176</v>
+        <v>0.0214</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181</v>
+        <v>0.1896</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1986</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0248</v>
+        <v>0.0216</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0602</v>
+        <v>0.066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08499999999999999</v>
+        <v>0.08760000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004</v>
+        <v>0.0038</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0358</v>
+        <v>0.0328</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0398</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="9">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0008</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0104</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.011</v>
+        <v>0.009600000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0046</v>
+        <v>0.0048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0046</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -633,48 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0012</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0012</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>O'Higgins</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0012</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Everton</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0008</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2688</v>
+        <v>0.2646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239</v>
+        <v>0.2426</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8268</v>
+        <v>0.8272</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0028</v>
+        <v>0.0026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6596</v>
+        <v>0.6604</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1604</v>
+        <v>0.1602</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8228</v>
+        <v>0.8232</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4152</v>
+        <v>0.4166</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1238</v>
+        <v>0.1304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.539</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.287</v>
+        <v>0.2924</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1742</v>
+        <v>0.1692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4611999999999999</v>
+        <v>0.4616</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0214</v>
+        <v>0.0196</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1896</v>
+        <v>0.181</v>
       </c>
       <c r="E6" t="n">
-        <v>0.211</v>
+        <v>0.2006</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0216</v>
+        <v>0.0208</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.066</v>
+        <v>0.0614</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08760000000000001</v>
+        <v>0.0822</v>
       </c>
     </row>
     <row r="8">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0038</v>
+        <v>0.0022</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0328</v>
+        <v>0.0378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0366</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009600000000000001</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="10">
@@ -614,28 +614,47 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0048</v>
+        <v>0.0056</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0048</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>Everton</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.0005999999999999999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>0.0005999999999999999</v>
       </c>
     </row>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -452,39 +452,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>Universidad de Concepción</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2646</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.32</v>
+        <v>0.708</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2426</v>
+        <v>0.1353</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8272</v>
+        <v>0.8521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Concepción</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0026</v>
+        <v>0.3422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6604</v>
+        <v>0.2688</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1602</v>
+        <v>0.2348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8232</v>
+        <v>0.8458</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4166</v>
+        <v>0.5142</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1304</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.547</v>
+        <v>0.6084000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2924</v>
+        <v>0.0877</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1692</v>
+        <v>0.1458</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4616</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0196</v>
+        <v>0.0232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181</v>
+        <v>0.1911</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2006</v>
+        <v>0.2143</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0208</v>
+        <v>0.0385</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0614</v>
+        <v>0.0905</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0822</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="8">
@@ -570,54 +570,54 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0022</v>
+        <v>0.0071</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0378</v>
+        <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04</v>
+        <v>0.0579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01</v>
+        <v>0.039</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0108</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0056</v>
+        <v>0.0153</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0056</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0012</v>
+        <v>0.0022</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0012</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="12">
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.708</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1353</v>
+        <v>0.1358</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8521</v>
+        <v>0.8524</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3422</v>
+        <v>0.3434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2688</v>
+        <v>0.2681</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2348</v>
+        <v>0.2299</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8458</v>
+        <v>0.8413999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5142</v>
+        <v>0.5172</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09420000000000001</v>
+        <v>0.0922</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6093999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0877</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458</v>
+        <v>0.1459</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2335</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0232</v>
+        <v>0.0237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1911</v>
+        <v>0.1881</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2143</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0385</v>
+        <v>0.0353</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0905</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.129</v>
+        <v>0.1286</v>
       </c>
     </row>
     <row r="8">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0071</v>
+        <v>0.0081</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0508</v>
+        <v>0.0515</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0579</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.039</v>
+        <v>0.0417</v>
       </c>
       <c r="E9" t="n">
-        <v>0.039</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="10">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0015</v>
+        <v>0.0026</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0153</v>
+        <v>0.0172</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0168</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0022</v>
+        <v>0.0033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0022</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="12">
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -452,39 +452,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Concepción</t>
+          <t>Iquique</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.3474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7082000000000001</v>
+        <v>0.5168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1358</v>
+        <v>0.0825</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8524</v>
+        <v>0.9467000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Iquique</t>
+          <t>Universidad de Concepción</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3434</v>
+        <v>0.0071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2681</v>
+        <v>0.4678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2299</v>
+        <v>0.2662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8413999999999999</v>
+        <v>0.7411</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5172</v>
+        <v>0.549</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0922</v>
+        <v>0.111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6093999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.0613</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1459</v>
+        <v>0.1525</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2309</v>
+        <v>0.2138</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0237</v>
+        <v>0.0154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1881</v>
+        <v>0.186</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2118</v>
+        <v>0.2014</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0353</v>
+        <v>0.0295</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09329999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1286</v>
+        <v>0.1175</v>
       </c>
     </row>
     <row r="8">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0081</v>
+        <v>0.0045</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0515</v>
+        <v>0.0504</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0596</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0417</v>
+        <v>0.0421</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0417</v>
+        <v>0.0421</v>
       </c>
     </row>
     <row r="10">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0026</v>
+        <v>0.0012</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0172</v>
+        <v>0.0167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0198</v>
+        <v>0.0179</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0033</v>
+        <v>0.0037</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0033</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="12">
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0011</v>
+        <v>0.0009</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0011</v>
+        <v>0.0009</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -456,54 +456,54 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3474</v>
+        <v>0.2126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5168</v>
+        <v>0.6357</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0825</v>
+        <v>0.0906</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9467000000000001</v>
+        <v>0.9389000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Concepción</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0071</v>
+        <v>0.7428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4678</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2662</v>
+        <v>0.0751</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7411</v>
+        <v>0.8179000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Universidad de Concepción</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.549</v>
+        <v>0.0037</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.3562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111</v>
+        <v>0.3276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.66</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0613</v>
+        <v>0.0259</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1525</v>
+        <v>0.191</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2138</v>
+        <v>0.2169</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0154</v>
+        <v>0.0081</v>
       </c>
       <c r="D6" t="n">
-        <v>0.186</v>
+        <v>0.1226</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2014</v>
+        <v>0.1307</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0295</v>
+        <v>0.0124</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.1063</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1175</v>
+        <v>0.1187</v>
       </c>
     </row>
     <row r="8">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0045</v>
+        <v>0.0026</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0504</v>
+        <v>0.0567</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0549</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="9">
@@ -595,35 +595,35 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0421</v>
+        <v>0.0253</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0421</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0167</v>
+        <v>0.0024</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0179</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0037</v>
+        <v>0.0017</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0037</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="12">
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0009</v>
+        <v>0.0007</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0009</v>
+        <v>0.0007</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2126</v>
+        <v>0.2139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6357</v>
+        <v>0.6499</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0906</v>
+        <v>0.0838</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9389000000000001</v>
+        <v>0.9476</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7428</v>
+        <v>0.7412</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0751</v>
+        <v>0.0761</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8179000000000001</v>
+        <v>0.8172999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0037</v>
+        <v>0.0042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3562</v>
+        <v>0.3411</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3276</v>
+        <v>0.326</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6875</v>
+        <v>0.6713</v>
       </c>
     </row>
     <row r="5">
@@ -513,54 +513,54 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0259</v>
+        <v>0.0266</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.191</v>
+        <v>0.1777</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2169</v>
+        <v>0.2043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0081</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1226</v>
+        <v>0.1008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1307</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0124</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1063</v>
+        <v>0.0915</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1187</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="8">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0026</v>
+        <v>0.0033</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0567</v>
+        <v>0.0895</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0593</v>
+        <v>0.09279999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -592,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0253</v>
+        <v>0.0529</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0253</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -614,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0024</v>
+        <v>0.0011</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0024</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -633,29 +633,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0017</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0017</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Everton</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0007</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2139</v>
+        <v>0.265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6499</v>
+        <v>0.696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0838</v>
+        <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9476</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7412</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0761</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8172999999999999</v>
+        <v>0.7769999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0042</v>
+        <v>0.001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3411</v>
+        <v>0.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.326</v>
+        <v>0.37</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6713</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0266</v>
+        <v>0.031</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1777</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2043</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="6">
@@ -532,79 +532,79 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0108</v>
+        <v>0.01</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1008</v>
+        <v>0.098</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1116</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0073</v>
+        <v>0.002</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0915</v>
+        <v>0.077</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0988</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0033</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0895</v>
+        <v>0.076</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09279999999999999</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0017</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0529</v>
+        <v>0.064</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0546</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -614,29 +614,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0011</v>
+        <v>0.002</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0011</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Everton</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.265</v>
+        <v>0.1368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.696</v>
+        <v>0.8048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.026</v>
+        <v>0.0269</v>
       </c>
       <c r="E2" t="n">
-        <v>0.987</v>
+        <v>0.9685</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0613</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7769999999999999</v>
+        <v>0.9111</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3</v>
+        <v>0.1936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>0.4152</v>
       </c>
       <c r="E4" t="n">
-        <v>0.671</v>
+        <v>0.6088</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.031</v>
+        <v>0.0086</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.2332</v>
       </c>
       <c r="E5" t="n">
-        <v>0.231</v>
+        <v>0.2418</v>
       </c>
     </row>
     <row r="6">
@@ -532,35 +532,35 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01</v>
+        <v>0.0048</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.098</v>
+        <v>0.1137</v>
       </c>
       <c r="E6" t="n">
-        <v>0.108</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.077</v>
+        <v>0.067</v>
       </c>
       <c r="E7" t="n">
-        <v>0.079</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="8">
@@ -573,32 +573,32 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
       <c r="D8" t="n">
-        <v>0.076</v>
+        <v>0.0454</v>
       </c>
       <c r="E8" t="n">
-        <v>0.078</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.064</v>
+        <v>0.0367</v>
       </c>
       <c r="E9" t="n">
-        <v>0.067</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="10">
@@ -614,10 +614,29 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002</v>
+        <v>0.0004</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002</v>
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0002</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_descenso.xlsx
+++ b/resumen_descenso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1368</v>
+        <v>0.101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8048</v>
+        <v>0.456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269</v>
+        <v>0.443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8498</v>
+        <v>0.899</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0613</v>
+        <v>0.051</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9111</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1936</v>
+        <v>0.544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4152</v>
+        <v>0.236</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6088</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0086</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2332</v>
+        <v>0.173</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2418</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="6">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0048</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1137</v>
+        <v>0.036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1185</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -557,86 +557,29 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.067</v>
+        <v>0.033</v>
       </c>
       <c r="E7" t="n">
-        <v>0.067</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0454</v>
+        <v>0.028</v>
       </c>
       <c r="E8" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Curicó Unido</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0367</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0367</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Everton</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0004</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Cobresal</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0002</v>
+        <v>0.028</v>
       </c>
     </row>
   </sheetData>
